--- a/class3/airbnb-cols.xlsx
+++ b/class3/airbnb-cols.xlsx
@@ -472,7 +472,7 @@
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D7"/>
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>

--- a/class3/airbnb-cols.xlsx
+++ b/class3/airbnb-cols.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26722"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10414"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/seanmcminn/Documents/etc/Northwestern/digitalframeworks-spring19/class3/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDB1012D-F16B-FE4E-91FB-07790B5F1F89}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1120" yWindow="1120" windowWidth="24480" windowHeight="15400" tabRatio="500"/>
+    <workbookView xWindow="1120" yWindow="1120" windowWidth="24480" windowHeight="15400" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="airbnb-cols.csv" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
   <si>
     <t>Host Id</t>
   </si>
@@ -82,9 +88,6 @@
   </si>
   <si>
     <t>Gorgeous 1 BR with Private Balcony</t>
-  </si>
-  <si>
-    <t>Manhattan/10024</t>
   </si>
   <si>
     <t>Trendy Times Square Loft, With Roommate</t>
@@ -102,7 +105,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -133,17 +136,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -468,16 +480,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -512,7 +524,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>5162530</v>
       </c>
@@ -541,13 +553,13 @@
         <v>1</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K2">
         <v>145</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>33134899</v>
       </c>
@@ -580,14 +592,14 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>39608626</v>
       </c>
       <c r="B4" t="s">
         <v>18</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D4" s="1"/>
@@ -613,16 +625,14 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>500</v>
       </c>
       <c r="B5" t="s">
         <v>20</v>
       </c>
-      <c r="C5" t="s">
-        <v>21</v>
-      </c>
+      <c r="C5" s="2"/>
       <c r="D5" s="1"/>
       <c r="E5">
         <v>100</v>
@@ -640,21 +650,21 @@
         <v>1</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K5">
         <v>199</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>500</v>
       </c>
       <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
         <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6">
@@ -679,15 +689,15 @@
         <v>549</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1039</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
         <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7">
@@ -713,8 +723,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="D2:D7"/>
+    <mergeCell ref="C4:C5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
